--- a/notebooks/data/groups.xlsx
+++ b/notebooks/data/groups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nealcaren/Documents/GitHub/osscabd_2018/notebooks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44732295-8C01-2045-9D7B-37F5713D73FB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3016A0E7-9E02-C746-B443-3A9A79209044}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="14000" xr2:uid="{32684EF7-94C9-4643-9FAB-7E19FB8ADF4B}"/>
   </bookViews>
@@ -702,7 +702,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -726,7 +726,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.25">
@@ -770,7 +770,7 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.25">
@@ -781,7 +781,7 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -792,7 +792,7 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -803,7 +803,7 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -814,7 +814,7 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.25">
@@ -836,7 +836,7 @@
         <v>23</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -847,7 +847,7 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -858,7 +858,7 @@
         <v>27</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -869,7 +869,7 @@
         <v>29</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -880,7 +880,7 @@
         <v>31</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -902,7 +902,7 @@
         <v>35</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -924,7 +924,7 @@
         <v>41</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -935,7 +935,7 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.25">
@@ -946,7 +946,7 @@
         <v>43</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.25">
@@ -957,7 +957,7 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -968,7 +968,7 @@
         <v>46</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -979,7 +979,7 @@
         <v>48</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -990,7 +990,7 @@
         <v>50</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1012,7 +1012,7 @@
         <v>54</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1023,7 +1023,7 @@
         <v>56</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1034,7 +1034,7 @@
         <v>58</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1045,7 +1045,7 @@
         <v>64</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1056,7 +1056,7 @@
         <v>62</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1067,7 +1067,7 @@
         <v>66</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.25">
@@ -1078,7 +1078,7 @@
         <v>60</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.25">
@@ -1089,7 +1089,7 @@
         <v>68</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.25">
@@ -1100,7 +1100,7 @@
         <v>70</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.25">
@@ -1111,7 +1111,7 @@
         <v>72</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1122,7 +1122,7 @@
         <v>74</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
